--- a/pred_ohlcv/54_21/2020-01-25 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>93617.15839023002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-80304.37730976999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-80304.37730976999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>30950.02809023001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>23277.30339023002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>68082.59699023001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>112757.02759023</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>133287.00054554</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>106662.34274554</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>97839.83364554001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>97839.83364554001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>98278.70754554002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>96261.98124554002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>97517.95584554003</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>88303.24574554003</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>88303.24574554003</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>149368.63061844</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>126745.1451184401</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>177617.9004184401</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>177617.9004184401</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>229882.6973184401</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>229882.6973184401</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>199956.0016184401</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>203768.0016184401</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>300377.76771844</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>300377.76771844</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>292398.61071844</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>386019.92351844</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>386019.92351844</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>385932.0316184401</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>464545.2806184401</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>491238.4435205501</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>491238.4435205501</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>431238.4435205501</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>442148.5664205501</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>440129.3716205501</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>228306.9001354501</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>237097.9021354501</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>237097.9021354501</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>237083.0155354501</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>237083.0155354501</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>237083.0155354501</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>231844.3610036001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>194082.4195036001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>200743.3846036001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>200743.3846036001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>190743.3846036001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>190743.3846036001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>408821.5938036001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>408821.5938036001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>271185.1116036001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>273093.5085501601</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>273053.2801501601</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>313841.1112501601</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>308839.9871501601</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>371094.00745016</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>371094.00745016</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>393364.92025016</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>388364.92025016</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>388386.55405016</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>388386.55405016</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>388386.55405016</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>388641.55405016</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>388504.27805016</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>388504.27805016</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>376254.2026501601</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>372418.4544501601</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>358461.6559501601</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>359069.6208501601</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>368094.6671501601</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>366874.7415501601</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>366619.7415501601</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>366619.7415501601</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>374199.9932501601</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>374199.9932501601</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>361732.6637501601</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>292103.3547501601</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>292103.3547501601</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>292194.8021779001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>292194.8021779001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>282194.8021779001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>282194.8021779001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>227215.8729779001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>183579.8908779001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>109513.0193779001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>109513.0193779001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-111397.0080220999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-946106.3826220998</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1071386.3212221</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2182449.7361053</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2183209.7361053</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2199383.830299949</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2198883.830299949</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2203522.287799949</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2211039.021999949</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2098151.284563299</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2125188.172463299</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2125259.172463299</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2121559.712263299</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-2156656.788863299</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-2161554.8814633</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2158332.7865633</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2159640.1389633</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2144535.1077633</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2134599.368863299</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-2136126.370481689</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2119279.98718169</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2119779.98718169</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2098673.84848169</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2098673.84848169</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2219700.070445939</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2307444.002045939</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2311444.002045939</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2310410.369745939</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2312316.584045939</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-2513539.383845939</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-2420921.843245939</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-2817672.250263489</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-10137762.1741348</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-9661649.203711698</v>
       </c>
       <c r="H1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-9616711.390311697</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-9615636.194825657</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-9495846.795925656</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-7954141.709736212</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-7765029.815136212</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-7630010.740536292</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-7687158.782736292</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-7775890.345636292</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-7832689.968036292</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-7922149.017145362</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-8018693.965745362</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-8018693.965745362</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>93617.15839023002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-80304.37730976999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-80304.37730976999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>30950.02809023001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>23277.30339023002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>68082.59699023001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>112757.02759023</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>133287.00054554</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>106662.34274554</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>97839.83364554001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>97839.83364554001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>98278.70754554002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>96261.98124554002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>97517.95584554003</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>88303.24574554003</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>88303.24574554003</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>149368.63061844</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>126745.1451184401</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>177617.9004184401</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>177617.9004184401</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>229882.6973184401</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>229882.6973184401</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>199956.0016184401</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>203768.0016184401</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>300377.76771844</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>300377.76771844</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>292398.61071844</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>386019.92351844</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>386019.92351844</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>385932.0316184401</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>464545.2806184401</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>551401.6630184401</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>539328.8330205501</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>491238.4435205501</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>491238.4435205501</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>431238.4435205501</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>442148.5664205501</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>440129.3716205501</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>228306.9001354501</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>237097.9021354501</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>237097.9021354501</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>237083.0155354501</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>237083.0155354501</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>237083.0155354501</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>231844.3610036001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>200743.3846036001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>190743.3846036001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>190743.3846036001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>408821.5938036001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>408821.5938036001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>271185.1116036001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>273093.5085501601</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>273053.2801501601</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>313841.1112501601</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>308839.9871501601</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>371094.00745016</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>371094.00745016</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>393364.92025016</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>388364.92025016</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>388386.55405016</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>388386.55405016</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>388386.55405016</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>388641.55405016</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>388504.27805016</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>388504.27805016</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>376254.2026501601</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>372418.4544501601</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>358461.6559501601</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>359069.6208501601</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>368094.6671501601</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>366874.7415501601</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>366619.7415501601</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>366619.7415501601</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>374199.9932501601</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>361732.6637501601</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>292871.2106501602</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>292103.3547501601</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>292103.3547501601</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>292194.8021779001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>292194.8021779001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>282194.8021779001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>227215.8729779001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>183579.8908779001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2277041.568526229</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2277041.568526229</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2262041.568526229</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2257328.800926229</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2201789.10022623</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2186662.2503053</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2191505.0899053</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2182449.7361053</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2183209.7361053</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2187943.468099949</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2199383.830299949</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2198883.830299949</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2203522.287799949</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2203672.287799949</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2211039.021999949</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2209290.551799949</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2127006.656563299</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2096880.702563299</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2098151.284563299</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2128892.647463299</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2125188.172463299</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2125259.172463299</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2121559.712263299</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2167992.494563299</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-2156656.788863299</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-2161554.8814633</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2158332.7865633</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2159640.1389633</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2150483.0707633</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2149058.5122633</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2144535.1077633</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2134599.368863299</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-2136126.370481689</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2119279.98718169</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2119779.98718169</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2098673.84848169</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2098673.84848169</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2210867.67388169</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2209362.85318169</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2219700.070445939</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2315286.817145939</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-2307446.877245939</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2307444.002045939</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2311444.002045939</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-2310410.369745939</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2312316.584045939</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-2513539.383845939</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-2420921.843245939</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-2688680.197645939</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-2605538.307234999</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-2605538.307234999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-2593255.287334999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-2567115.175834999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-2567086.073856309</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-2585335.147356309</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-2584575.228256309</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-2640236.755456309</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-2639540.875756309</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-2642665.805956309</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-2642665.805956309</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-2640665.805956309</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-2640665.805956309</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-2651351.670356309</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-2651351.670356309</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2651351.670356309</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2689279.947056308</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2689279.947056308</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2730884.855056309</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-2782318.213766889</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-2758699.808811159</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-2758890.808811159</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2745874.051111159</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2722491.789611159</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2628217.248311159</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2747356.702011159</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-2695945.113811159</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-2753352.479863489</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-2738196.820863489</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-2753646.880063489</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-2753646.880063489</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-2704476.954063489</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-2733722.102563489</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-2728144.554163489</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-2728144.554163489</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-2817672.250263489</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-2916855.763663489</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2907889.406163489</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-2907889.406163489</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-2941109.202863489</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2926268.823063489</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2919130.903063489</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2922938.177872648</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2930395.019872649</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2926291.735172648</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-2934205.918172649</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-2918120.514572649</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-2974531.040072649</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-3010207.792172649</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-3007648.372672649</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-3052663.386472649</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-3048799.322872649</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-3051404.357472649</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-3051309.068372649</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-3051309.068372649</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-3049803.770316529</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-3049803.770316529</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-3037415.617116529</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-3052296.855478568</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-3052296.855478568</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-3051862.094378569</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-3078830.713878569</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-3057680.162378569</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-3057680.162378569</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-3062805.756878569</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-3044954.463678569</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-3044954.463678569</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-3053765.539663669</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-3051583.691093469</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-2964789.096093468</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-2966240.913493468</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-2966603.303593468</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-2968657.919993469</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-2968653.429993468</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-2943526.787093468</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-2942848.944736299</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-2964327.580136299</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-2963355.137436299</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-2976195.416036298</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-2976173.296036298</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-2977173.296036298</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-2977173.296036298</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-2984617.235448398</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-2984617.235448398</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-2964431.386274558</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-3159924.988574558</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-3187651.457174558</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-10218429.3414348</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-9661649.203711698</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-9616711.390311697</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-9615636.194825657</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-7954141.709736212</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-7765029.815136212</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-7630010.740536292</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-7687158.782736292</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-7775890.345636292</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-7832689.968036292</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-7922149.017145362</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-7934598.032645361</v>
       </c>
       <c r="H1103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-8018693.965745362</v>
       </c>
       <c r="H1104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-8018693.965745362</v>
       </c>
       <c r="H1105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
